--- a/docs/Perfis.xlsx
+++ b/docs/Perfis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projeto\Web\dizimo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF45CD9-63F1-452D-B033-63307FE9E4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1931E9FA-A1D8-48CC-BBC3-8D1FE29D93F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{296C41B3-4866-4C6B-8C01-9397114A5592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{296C41B3-4866-4C6B-8C01-9397114A5592}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="perfis" sheetId="1" r:id="rId1"/>
+    <sheet name="campos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Cadastrar usuários</t>
   </si>
@@ -48,9 +49,6 @@
   </si>
   <si>
     <t>Assistente Pastoral</t>
-  </si>
-  <si>
-    <t>Fiel</t>
   </si>
   <si>
     <t>Cadastrar Igrejas</t>
@@ -96,12 +94,120 @@
       <t xml:space="preserve"> as igrejas</t>
     </r>
   </si>
+  <si>
+    <t>dizimista</t>
+  </si>
+  <si>
+    <t>Tabela</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>Comunidade</t>
+  </si>
+  <si>
+    <t>usuários</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Exemplo</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>paulo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Paróquia Nossa Senhora</t>
+  </si>
+  <si>
+    <t>Igreja</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Paróquia / Comunidade (equivalente a Matriz e Filial)</t>
+  </si>
+  <si>
+    <t>email da secretaria</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>paroquia@hotmail.com</t>
+  </si>
+  <si>
+    <t>(11) 98765439</t>
+  </si>
+  <si>
+    <t>avenida hum</t>
+  </si>
+  <si>
+    <t>Não é obrigatório</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Barueri</t>
+  </si>
+  <si>
+    <t>Cep</t>
+  </si>
+  <si>
+    <t>04567-999</t>
+  </si>
+  <si>
+    <t>Preenchimento Obrigatório</t>
+  </si>
+  <si>
+    <t>Dat. Nascimento</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Assistente Pastoral / Padre / Dizimista</t>
+  </si>
+  <si>
+    <t>Obrigatório para o Assistente Pastoral e Padre</t>
+  </si>
+  <si>
+    <t>Ativo / Inativo</t>
+  </si>
+  <si>
+    <t>Dizimista/ Usuário</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +217,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,11 +277,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,8 +342,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0787E7-FAF8-4D89-B08E-896F0AF3E57D}">
   <dimension ref="B2:G135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -531,71 +720,71 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -604,25 +793,25 @@
     </row>
     <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1525,4 +1714,841 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82247E04-84CB-471F-AF85-FAEF8433BCA4}">
+  <dimension ref="A1:D113"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12">
+        <v>32965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="13"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A18:A29"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{6E13EB58-5CEC-4BC2-B729-0C6F0C4C79C3}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{6FB48F9F-4DF6-4414-909D-C02E17B0C906}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>